--- a/Fully Automated Invoice/Falguni Chouhan Invoice.xlsx
+++ b/Fully Automated Invoice/Falguni Chouhan Invoice.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da04d8ca7ba41395/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da04d8ca7ba41395/Desktop/.tmp.driveupload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{45C1A1FA-A613-44A3-AF43-E60BBE68BC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{869968D0-DF19-4043-B42B-F300D863C969}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{45C1A1FA-A613-44A3-AF43-E60BBE68BC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B45C8AA-0A7A-453D-A990-B2AEF6CAFC18}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D948C825-ACBB-4A42-B732-CDAF22440B34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D948C825-ACBB-4A42-B732-CDAF22440B34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>SR. NO</t>
   </si>
@@ -362,10 +362,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -667,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6829BBD1-EAB7-4447-8357-D52D6740BEA8}">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -914,18 +910,18 @@
         <v>7</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="6">
         <f>IFERROR(VLOOKUP(B19,Sheet2!$A$1:$B$18,2,0),"")</f>
-        <v>685</v>
+        <v>1600</v>
       </c>
       <c r="D19" s="6">
         <v>4</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="0"/>
-        <v>2740</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -967,16 +963,22 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6" t="str">
+      <c r="A22" s="6">
+        <v>10</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="6">
         <f>IFERROR(VLOOKUP(B22,Sheet2!$A$1:$B$18,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6" t="str">
+        <v>5500</v>
+      </c>
+      <c r="D22" s="6">
+        <v>6</v>
+      </c>
+      <c r="E22" s="6">
         <f t="shared" si="0"/>
-        <v/>
+        <v>33000</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1092,7 +1094,7 @@
       <c r="D31" s="17"/>
       <c r="E31" s="4">
         <f>SUM(E13:E30)</f>
-        <v>110925</v>
+        <v>147585</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1104,7 +1106,7 @@
       <c r="D32" s="17"/>
       <c r="E32" s="4">
         <f>E31*9%</f>
-        <v>9983.25</v>
+        <v>13282.65</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1116,7 +1118,7 @@
       <c r="D33" s="17"/>
       <c r="E33" s="4">
         <f>E31*9%</f>
-        <v>9983.25</v>
+        <v>13282.65</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1128,7 +1130,7 @@
       <c r="D34" s="18"/>
       <c r="E34" s="5">
         <f>E31+E32+E33</f>
-        <v>130891.5</v>
+        <v>174150.3</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1390,7 +1392,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F6B33DF2-8CC0-40B3-B810-D89AFE6581BE}">
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$18</xm:f>
@@ -1407,7 +1409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB9E01C-D67B-475D-8F89-A49BFC4E1B2F}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
